--- a/Output_testing/R1_201907/Country/HKD/MN/BULGARIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BULGARIA_201907_HKD_MN.xlsx
@@ -550,8 +550,10 @@
       <c r="E7" s="8" t="n">
         <v>0.969849</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.255101</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="G7" s="8" t="n">
         <v>1.237205</v>
@@ -562,8 +564,10 @@
       <c r="I7" s="9" t="n">
         <v>-73.69683321836698</v>
       </c>
-      <c r="J7" s="9" t="n">
-        <v>1065.744841232451</v>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
     <row r="8">

--- a/Output_testing/R1_201907/Country/HKD/MN/BULGARIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BULGARIA_201907_HKD_MN.xlsx
@@ -814,136 +814,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>308.788582</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>45.67329217370678</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>315.147395</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>39.69612304279003</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>448.012741</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>43.11737586412993</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>238.2187</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>45.11724280089023</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-12.61101794060617</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>117.798282</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>17.42368618845727</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>167.70198</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>21.12382503621682</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>215.017013</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>20.6935395319561</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>114.376371</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>21.66222257569074</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-4.516363207236007</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>54.831491</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>8.110192069093324</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>72.57284799999999</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>9.141312127214944</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>78.73117999999999</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>7.577199417831888</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>23.10835</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.376587722449798</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-49.68947743751585</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>24.818284</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.670902366403018</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>30.24301</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.809424622229002</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>45.51239</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.38017638008395</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>19.370585</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.668676668289611</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-34.55673187337877</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>17.316717</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.561336529698482</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>16.287804</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.051619914804778</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>29.162512</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.806641142034394</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>17.815909</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.374230033459026</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>9.171694752764626</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>10.762776</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.591935199366145</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>42.284859</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.32622192771426</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>69.230182</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>6.662810016905572</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>15.746912</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.982373978483855</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-57.4768724687364</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>5.622443</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.8316223359224224</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>4.261338</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.5367602596712462</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>7.940655</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.7642197975846911</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>9.289111999999999</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.759304040819059</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>157.7937186677146</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>14.580041</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.156551476691661</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>25.575086</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.221450587227404</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>16.024349</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.542205869566988</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>7.797963</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.476889052049056</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>2.291226786943601</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>7.302309</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.080093345225079</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>6.970007</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.8779455577638768</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>7.791032</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.7498198697734444</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>7.120551</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.348591140591069</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>41.06995260257884</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>11.860447</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.754293042939535</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>11.817982</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.488598906519528</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>10.142006</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.9760809117664377</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>6.19271</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.172863426194085</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>8.174916533021094</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>102.399916</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>15.14609527249629</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>101.037374</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>12.72671801784811</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>111.48976</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>10.72993119836661</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>68.962079</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>13.06101856108346</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-7.117886206893953</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1272,565 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>35.63358832148097</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>43.44710526418948</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.099368</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>88.8590007314875</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>14.20899300233803</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>6.905095535490577</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>8.491538645477673</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>3.992466891097272</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>177.1574458534396</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>49.62258646406456</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>24.11468177004874</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>28.87679781733509</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>3.950032533007868</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-23.69904292026417</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>17.34181298203947</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>13.58696044435783</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>3.484110215169678</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.216128289167923</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>332.2321172076989</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.96773105916488</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3.473134170387415</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.093594028475475</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>52.70880361173815</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>13.9884413252413</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>11.18132822738385</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>8.087776998130153</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.8887775267639558</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.922308524316672</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>4.139536889310508</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>2.371503192765059</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.316802924991416</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>3.259788714164205</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>1.540882699790851</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +1862,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>308.788582</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>45.7391505256153</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>315.147395</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>39.74467619791942</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>448.012741</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>43.12796433088401</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>238.2187</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>45.22320958372328</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-12.61101794060617</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>117.798282</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>17.4488101767211</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>167.70198</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>21.14966202671597</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>215.017013</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>20.69862130817664</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>114.376371</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>21.71310059688299</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-4.516363207236007</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>54.831491</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>8.12188651584572</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>72.57284799999999</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>9.152493056529387</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>78.73117999999999</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>7.579060174023954</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>23.10835</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.38686700575577</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-49.68947743751585</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>24.818284</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.676195603837028</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>30.24301</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.81408400885065</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>45.51239</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.381252033484651</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>19.370585</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.677293282241598</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-34.55673187337877</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>17.316717</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.565029834789945</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>16.287804</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.054129293866373</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>29.162512</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.8073303775416</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>17.815909</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.382155081156693</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>9.171694752764626</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>10.762776</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.594230681552467</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>42.284859</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.332736540721458</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>69.230182</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>6.664446223676947</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>15.746912</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.989378674606348</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-57.4768724687364</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>5.622443</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.8328214891659824</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>4.261338</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.5374167823278043</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>7.940655</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.7644074693935005</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>9.289111999999999</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.763436114892236</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>157.7937186677146</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>14.580041</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.159661104207029</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>25.575086</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.22539081055689</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>16.024349</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.542584593810998</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>7.797963</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.48035781857226</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>2.291226786943601</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>7.301944</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.081596714432963</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>6.931526</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.8741663767439983</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>7.782172</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.7491510970952593</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>7.107021</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.349190051826001</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>41.04948684891574</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>11.860447</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.756822636123516</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>11.805211</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.488809033763762</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>10.142006</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.9763206109614003</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>6.19271</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.175618128304869</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>8.174916533021094</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>101.426813</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>15.02379471770894</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>100.118777</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>12.62643587200428</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>111.243519</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>10.70886178095104</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>67.738404</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>12.85939366203795</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-8.646321010042158</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2320,455 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>177.847092</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>44.14281588347976</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>198.495241</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>47.2876140304128</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>269.819148</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>53.14713134458761</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>78.193518</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>27.72953006976378</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-51.37507725209872</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>21.317297</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>5.291093073393944</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>29.788077</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>7.09642750520259</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>15.254503</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>3.004727724280731</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>41.485574</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>14.71190325129521</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>461.491412081623</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1.441667</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.3578312146160288</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>9.473523</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>2.256881811752043</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>37.504657</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>7.38741096170353</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>31.681952</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>11.23527452304694</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>551.3441368659448</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>40.139667</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>9.96292888502888</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>34.587601</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>8.23982035078574</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>24.748341</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>4.874759035587951</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>22.192745</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.870145832396232</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>20.84017365291306</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>20.284977</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>5.034864471731828</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>10.365681</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.469421029043127</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>17.205153</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.388953427036711</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>21.257076</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>7.538332373499987</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>113.9828111726472</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>5.172054</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.018755841817793</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>20.358347</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>7.219618834737493</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>17.167822</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>4.261166135155886</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>17.084165</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>4.069968612254474</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>19.64801</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.870130700026415</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>10.664324</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.781856867364677</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>9.27514274041723</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>5.782711</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.43530683639389</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>6.91823</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.648133166142874</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>8.74084</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.721710912607378</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>7.602568</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.696075625647434</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>195.5653733051553</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>9.974646</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.475772625401645</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>5.214368</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.242221325580977</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>6.644579</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.308803750438381</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>6.449658</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.287222649973269</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>25.19601494512047</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.05723587113512134</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>4.5552</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.61539675672078</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>108.846137</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>27.01632582903866</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>107.803326</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>25.68203673499036</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>102.655509</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>20.22038043077838</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>37.54549</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>13.3146432155542</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-42.03685648261325</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
